--- a/Assignment08/Src/Top5TransactionsByLoyaltyNumberWithPieChart.xlsx
+++ b/Assignment08/Src/Top5TransactionsByLoyaltyNumberWithPieChart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3840" yWindow="945" windowWidth="21600" windowHeight="14475" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14475" windowWidth="21600" xWindow="3840" yWindow="945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -43,21 +43,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -73,7 +75,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Top 5 Total Transactions by Loyalty Number</a:t>
+              <a:t>Top 5 Total Transactions by Store</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -101,12 +103,12 @@
           </dPt>
           <cat>
             <numRef>
-              <f>'Sheet1'!$F$2:$F$6</f>
+              <f>'Sheet1'!$D$2:$D$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$1:$B$6</f>
+              <f>'Sheet1'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -131,7 +133,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>6</row>
+      <row>7</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -453,84 +455,135 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="4" width="15.140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="4" width="17"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="4" width="12.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="4" width="27.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">138       </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>87495</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>39572</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Loyalty Number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Total Transactions</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date of Issue</t>
+        </is>
+      </c>
+      <c r="D1">
+        <f>CONCATENATE(A1, " ", C1)</f>
+        <v/>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">43.2      </t>
+          <t xml:space="preserve">138       </t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>87433</v>
+        <v>87495</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>39523</v>
+        <v>39572</v>
+      </c>
+      <c r="D2" s="3">
+        <f>CONCATENATE(A2, " ",TEXT(C2,"m/d/yyyy"))</f>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">42.5      </t>
+          <t xml:space="preserve">43.2      </t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>87324</v>
+        <v>87433</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>39522</v>
+        <v>39523</v>
+      </c>
+      <c r="D3" s="3">
+        <f>CONCATENATE(A3, " ",TEXT(C3,"m/d/yyyy"))</f>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">34        </t>
+          <t xml:space="preserve">42.5      </t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>87299</v>
+        <v>87324</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>39511</v>
+        <v>39522</v>
+      </c>
+      <c r="D4" s="3">
+        <f>CONCATENATE(A4, " ",TEXT(C4,"m/d/yyyy"))</f>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">34        </t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>87299</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>39511</v>
+      </c>
+      <c r="D5" s="3">
+        <f>CONCATENATE(A5, " ",TEXT(C5,"m/d/yyyy"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">24        </t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>87281</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C6" s="2" t="n">
         <v>39501</v>
       </c>
-    </row>
+      <c r="D6" s="3">
+        <f>CONCATENATE(A6, " ",TEXT(C6,"m/d/yyyy"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+    </row>
+    <row r="9"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>